--- a/spreadsheets/Aurelion Sol.xlsx
+++ b/spreadsheets/Aurelion Sol.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7853A895-EB10-43C7-A6BD-CCB251A7355A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF8694B-AFE3-40F0-8980-5D1F445D5A92}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="110">
   <si>
     <t>Champion</t>
   </si>
@@ -356,9 +356,6 @@
   </si>
   <si>
     <t>Metadata guide</t>
-  </si>
-  <si>
-    <t>leagueofgraphs</t>
   </si>
 </sst>
 </file>
@@ -742,7 +739,7 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -813,7 +810,9 @@
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>61</v>
       </c>
@@ -880,12 +879,8 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1">
-      <c r="A15" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>49</v>
-      </c>
+      <c r="A15" s="8"/>
+      <c r="B15" s="5"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -1873,7 +1868,7 @@
     <hyperlink ref="B5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="B7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="B9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B15" r:id="rId5" xr:uid="{357FAB6B-C656-4BFA-B5E3-F3C2774A25CF}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{DA0E6C95-3297-47EF-85F5-ABFF296C7B08}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId6"/>

--- a/spreadsheets/Aurelion Sol.xlsx
+++ b/spreadsheets/Aurelion Sol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF8694B-AFE3-40F0-8980-5D1F445D5A92}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC1FBE6-03E0-4239-8A66-CC884A376C64}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30675" yWindow="1875" windowWidth="21525" windowHeight="11820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="109">
   <si>
     <t>Champion</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>Comments</t>
-  </si>
-  <si>
-    <t>Ahri</t>
   </si>
   <si>
     <t>Akali</t>
@@ -362,7 +359,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,6 +404,12 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -431,10 +434,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -448,8 +452,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -738,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -753,129 +759,129 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="C12" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="C14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1">
@@ -1880,8 +1886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1907,89 +1913,92 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="3">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="3">
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="3">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -1998,101 +2007,101 @@
         <v>28</v>
       </c>
       <c r="B10" s="3">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="3">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="3">
-        <v>5</v>
+        <v>32</v>
+      </c>
+      <c r="B12" s="6">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="6">
-        <v>10</v>
+        <v>36</v>
+      </c>
+      <c r="B13" s="3">
+        <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="3">
-        <v>6</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="3">
-        <v>8</v>
+      <c r="B16" s="6">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="6">
-        <v>6</v>
+        <v>43</v>
+      </c>
+      <c r="B17" s="3">
+        <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B18" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B19" s="3">
-        <v>7</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2100,18 +2109,18 @@
         <v>51</v>
       </c>
       <c r="B20" s="3">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21" s="3">
-        <v>3</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1">
@@ -2119,18 +2128,21 @@
         <v>54</v>
       </c>
       <c r="B22" s="3">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B23" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1">
@@ -2138,10 +2150,10 @@
         <v>57</v>
       </c>
       <c r="B24" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1">
@@ -2152,7 +2164,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1">
@@ -2160,42 +2172,36 @@
         <v>59</v>
       </c>
       <c r="B26" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B27" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B28" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="3">
-        <v>8</v>
-      </c>
-      <c r="C29" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2203,16 +2209,19 @@
       <c r="A30" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="B30" s="3">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B31" s="3">
         <v>7</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1">
@@ -2220,29 +2229,29 @@
         <v>72</v>
       </c>
       <c r="B32" s="3">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B33" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B34" s="3">
-        <v>8</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1">
@@ -2250,7 +2259,7 @@
         <v>77</v>
       </c>
       <c r="B35" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1">
@@ -2258,7 +2267,7 @@
         <v>78</v>
       </c>
       <c r="B36" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1">
@@ -2266,108 +2275,101 @@
         <v>79</v>
       </c>
       <c r="B37" s="3">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B38" s="3">
-        <v>4</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>81</v>
+        <v>5</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B39" s="3">
-        <v>5</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>83</v>
+        <v>6</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B40" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B41" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B42" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B43" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B44" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B45" s="3">
         <v>4</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A46" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="3">
-        <v>4</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="47" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="48" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
